--- a/From Email/Template.xlsx
+++ b/From Email/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA\Documents\UiPath\Monthly_SO_Balance_Report\From Email\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD93A30-5E44-4124-AC2C-B26C81B30C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D890157-784A-4819-88B6-D968D9FE89F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DB7C3DE3-52BC-4CC2-BAFE-8925953230B7}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A551C78D-2081-44C6-B396-2A49EFA51B2A}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +480,81 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>12006717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>22002617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>22003017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>22000917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>32000517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>32001017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>18000317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>11006317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>28100317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>28001117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>24000917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>37000817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>20100217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>20102617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>20100617</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
